--- a/C_LDES/vkb_example.xlsx
+++ b/C_LDES/vkb_example.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,27 +468,12 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>bronAssetId.toegekendDoor</t>
+          <t>doel.typeURI</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>doel.typeURI</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
           <t>doelAssetId.identificator</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>doelAssetId.toegekendDoor</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>isActief</t>
         </is>
       </c>
     </row>
@@ -500,62 +485,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy_gjhehH</t>
+          <t>HeeftAanzicht_-_opstelling_01_-_aanzicht_01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dummy_uPUreqJ</t>
+          <t>OTLMOW</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dummy_edcP</t>
+          <t>DA_Init</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2017-05-24 18:36:33</t>
+          <t>2021-01-01 00:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>dummy_WCGDdcBaf</t>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/installatie#Verkeersbordopstelling</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>dummy_QSpC</t>
+          <t>opstelling_01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>dummy_ljUllqes</t>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/installatie#AanzichtVerkeersbordopstelling</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>dummy_VwsJ</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>dummy_GWCkPMp</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>dummy_CaKwtl</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>aanzicht_01</t>
         </is>
       </c>
     </row>
@@ -570,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,47 +581,12 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>bron.typeURI</t>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.bron</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>bronAssetId.identificator</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>bronAssetId.toegekendDoor</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>doel.typeURI</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>doelAssetId.identificator</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>doelAssetId.toegekendDoor</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.bron</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
           <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.doel</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>isActief</t>
         </is>
       </c>
     </row>
@@ -663,72 +598,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy_sPQGXaast</t>
+          <t>HoortBij_-_bord_01_-_aanzicht_01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dummy_RcTBrzr</t>
+          <t>OTLMOW</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dummy_MELjl</t>
+          <t>DA_Init</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2019-10-05 19:03:48</t>
+          <t>2021-01-01 00:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>dummy_GCOXqAWcPW</t>
+          <t>https://data.awvvlaanderen.be/id/asset/bord_01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>dummy_WGRroGEb</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>dummy_fVFBxP</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>dummy_bBXOgx</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>dummy_RJHtuJGrVd</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>dummy_HMnPQnCeU</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>https://data.awvvlaanderen.be/id/asset/bord_01</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
           <t>https://data.awvvlaanderen.be/id/asset/aanzicht_01</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -743,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,105 +684,15 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>datumOprichtingObject</t>
+          <t>hoek</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>foto.bestandsnaam</t>
+          <t>isActief</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
-        <is>
-          <t>foto.mimeType</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>foto.omschrijving</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>foto.opmaakdatum</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>foto.uri</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>hoek</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>isActief</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>kaartvoorstelling.bestandsnaam</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>kaartvoorstelling.mimeType</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>kaartvoorstelling.omschrijving</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>kaartvoorstelling.opmaakdatum</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>kaartvoorstelling.uri</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>naam</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>notitie</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>technischeVoorstelling.bestandsnaam</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>technischeVoorstelling.mimeType</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>technischeVoorstelling.omschrijving</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>technischeVoorstelling.opmaakdatum</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>technischeVoorstelling.uri</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
         <is>
           <t>toestand</t>
         </is>
@@ -896,132 +706,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy_aosZwyL</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>dummy_yxEAM</t>
-        </is>
-      </c>
+          <t>aanzicht_01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dummy_dJjk</t>
+          <t>DA_Init</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2019-12-13 19:50:17</t>
+          <t>2021-01-01 00:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2019-01-31</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>dummy_cTOrYdLeH</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>text-csv</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>dummy_efNUdZhi</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2000-06-16</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>http://slpLnS.dummy</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>10.09</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>dummy_BoumEEou</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>application-xml</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>dummy_QaNmY</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2006-11-18</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>http://XYXrbqUryqy.dummy</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>dummy</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>dummy_kcQLwC</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>dummy_WZycduK</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>application-rtf</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>dummy_SrAB</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2012-01-24</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>http://QVmMoABDeEZXaKM.dummy</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>gepland</t>
+          <t>in-gebruik</t>
         </is>
       </c>
     </row>
@@ -1036,7 +752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,90 +783,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>afmeting.zeshoekig.zijde</t>
+          <t>assetVersie.context</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>assetVersie.context</t>
+          <t>assetVersie.timestamp</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>assetVersie.timestamp</t>
+          <t>assetVersie.versienummer</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>assetVersie.versienummer</t>
+          <t>isActief</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>datumOprichtingObject</t>
+          <t>opstelhoogte</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
-        <is>
-          <t>fabricageDatum</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>geometry</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>horizontaleVerschuiving</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>isActief</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>kaartVoorstelling.bestandsnaam</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>kaartVoorstelling.mimeType</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>kaartVoorstelling.omschrijving</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>kaartVoorstelling.opmaakdatum</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>kaartVoorstelling.uri</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>naam</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>notitie</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>opstelhoogte</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>toestand</t>
         </is>
@@ -1164,103 +820,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy_hRTV</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>dummy_ZdRzoivVR</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>bord_01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>600.0</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>54.31</t>
+          <t>DA_Init</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>dummy_yoOHifTae</t>
+          <t>2021-01-01 00:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2005-09-27 10:43:32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2016-05-19</t>
-        </is>
-      </c>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2017-09-02</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>POINT Z (200000 200000 0)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>dummy_ATsWFVt</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>application-vnd.openxmlformats-officedocument.wordprocessingml.document</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>dummy_fKxO</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2001-08-22</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>http://fTYUKtdHAv.dummy</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>dummy</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>dummy_miniFyXZGW</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>96.09</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>verwijderd</t>
+          <t>in-ontwerp</t>
         </is>
       </c>
     </row>
@@ -1272,103 +864,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dummy_QSpgPLGW</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>dummy_SZlMR</t>
-        </is>
-      </c>
+          <t>bord_01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>600.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DA_Init</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>dummy_kuSgOCt</t>
+          <t>2025-02-02 00:00:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2017-07-07 18:57:39</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2005-05-19</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2000-03-19</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>POINT Z (200000 200000 0)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>dummy_VdYYlNG</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>application-x-x509-ca-cert</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>dummy_CppUDDmawX</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2015-08-29</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>http://SiaVAQtjMM.dummy</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>dummy</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>dummy_vXpl</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>46.25</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>uit-gebruik</t>
+          <t>in-gebruik</t>
         </is>
       </c>
     </row>
@@ -1383,7 +915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1424,42 +956,17 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>datumOprichtingObject</t>
+          <t>geometry</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>geometry</t>
+          <t>isActief</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>isActief</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>notitie</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>positieTovRijweg</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
           <t>toestand</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>wegSegment[].externReferentienummer</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>wegSegment[].externePartij</t>
         </is>
       </c>
     </row>
@@ -1471,67 +978,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dummy_gnZHzugHj</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>dummy_nPLMi</t>
-        </is>
-      </c>
+          <t>opstelling_01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dummy_WdKh</t>
+          <t>DA_Init</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2008-08-20 04:16:15</t>
+          <t>2021-01-01 00:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2009-12-20</t>
+          <t>POINT Z (200000 200000 0)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>POINT Z (200000 200000 0)</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>dummy_Iybbw</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>rechterrand</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
           <t>in-gebruik</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>dummy_ZGGxZxUa</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>dummy_FdwH</t>
         </is>
       </c>
     </row>

--- a/C_LDES/vkb_example.xlsx
+++ b/C_LDES/vkb_example.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>doelAssetId.identificator</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/isVersionOf</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>aanzicht_01</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://data.awvvlaanderen.be/id/asset/HeeftAanzicht_-_opstelling_01_-_aanzicht_01</t>
         </is>
       </c>
     </row>
@@ -535,109 +545,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="20" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>typeURI</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>assetId.identificator</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>assetId.toegekendDoor</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>assetVersie.context</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>assetVersie.timestamp</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>assetVersie.versienummer</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.bron</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.doel</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://wegenenverkeer.data.vlaanderen.be/ns/onderdeel#HoortBij</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HoortBij_-_bord_01_-_aanzicht_01</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>OTLMOW</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DA_Init</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021-01-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://data.awvvlaanderen.be/id/asset/bord_01</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://data.awvvlaanderen.be/id/asset/aanzicht_01</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,23 +591,141 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hoek</t>
+          <t>http://purl.org/dc/terms/isVersionOf</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>isActief</t>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.bron</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>toestand</t>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.doel</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/onderdeel#HoortBij</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HoortBij_-_bord_01_-_aanzicht_01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OTLMOW</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DA_Init</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://data.awvvlaanderen.be/id/asset/HoortBij_-_bord_01_-_aanzicht_01</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://data.awvvlaanderen.be/id/asset/bord_01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://data.awvvlaanderen.be/id/asset/aanzicht_01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="20" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>typeURI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>assetId.identificator</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>assetId.toegekendDoor</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>assetVersie.context</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>assetVersie.timestamp</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>assetVersie.versienummer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>hoek</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/isVersionOf</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>isActief</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>toestand</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>https://wegenenverkeer.data.vlaanderen.be/ns/installatie#AanzichtVerkeersbordopstelling</t>
         </is>
       </c>
@@ -732,10 +757,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>https://data.awvvlaanderen.be/id/asset/aanzicht_01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>in-gebruik</t>
         </is>
@@ -752,7 +782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +828,20 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>http://purl.org/dc/terms/isVersionOf</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>isActief</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>opstelhoogte</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>toestand</t>
         </is>
@@ -846,11 +881,16 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>https://data.awvvlaanderen.be/id/asset/bord_01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>in-ontwerp</t>
         </is>
@@ -890,15 +930,20 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>https://data.awvvlaanderen.be/id/asset/bord_01</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>1.8</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>in-gebruik</t>
         </is>
@@ -915,7 +960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,10 +1006,15 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>http://purl.org/dc/terms/isVersionOf</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>isActief</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>toestand</t>
         </is>
@@ -1004,10 +1054,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>https://data.awvvlaanderen.be/id/asset/opstelling_01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>True</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>in-gebruik</t>
         </is>

--- a/C_LDES/vkb_example.xlsx
+++ b/C_LDES/vkb_example.xlsx
@@ -7,11 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onderdeel#HeeftAanzicht" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onderdeel#HoortBij" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="installatie#AanzichtVerkeersbordopstelling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onderdeel#RetroreflecterendVerkeersbord" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="installatie#Verkeersbordopstelling" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onderdeel#Bevestiging" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onderdeel#HeeftAanzicht" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onderdeel#HoortBij" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="installatie#AanzichtVerkeersbordopstelling" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onderdeel#RetroreflecterendVerkeersbord" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onderdeel#RetroreflecterendeFolie" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="installatie#Verkeersbordopstelling" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,6 +419,119 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="20" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>typeURI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>assetId.identificator</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>assetId.toegekendDoor</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>assetVersie.context</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>assetVersie.timestamp</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>assetVersie.versienummer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/isVersionOf</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.bron</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/implementatieelement#RelatieObject.doel</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/onderdeel#Bevestiging</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bevestiging_-_bord_01_-_folie_01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OTLMOW</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DA_Init</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://data.awvvlaanderen.be/id/asset/Bevestiging_-_bord_01_-_folie_01</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://data.awvvlaanderen.be/id/asset/bord_01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://data.awvvlaanderen.be/id/asset/folie_01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -544,7 +659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -657,7 +772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -776,7 +891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -954,7 +1069,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="20" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>typeURI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>assetId.identificator</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>assetId.toegekendDoor</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>assetVersie.context</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>assetVersie.timestamp</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>assetVersie.versienummer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>folietype</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>http://purl.org/dc/terms/isVersionOf</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>isActief</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://wegenenverkeer.data.vlaanderen.be/ns/onderdeel#RetroreflecterendeFolie</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>folie_01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DA_Init</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>folietype-3a</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://data.awvvlaanderen.be/id/asset/folie_01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
